--- a/delivery_performance_analysis.xlsx
+++ b/delivery_performance_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthami priya bheri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthami priya bheri\Downloads\delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CFCC8194-9FCC-4BA7-829D-EF1973D647BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A33E4C-B32D-4BDB-9BA5-91CB7F2A7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{58311798-8718-4028-8116-E2D947513F15}"/>
   </bookViews>
@@ -16,17 +16,16 @@
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Analysiss" sheetId="2" r:id="rId2"/>
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_delivery_performance_analysis1.xlsxAnalysis1" hidden="1">Analysis[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_delivery_performance_analysis1.xlsxAnalysis" hidden="1">Analysis[]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="157" r:id="rId5"/>
-    <pivotCache cacheId="158" r:id="rId6"/>
-    <pivotCache cacheId="159" r:id="rId7"/>
-    <pivotCache cacheId="162" r:id="rId8"/>
+    <pivotCache cacheId="163" r:id="rId4"/>
+    <pivotCache cacheId="164" r:id="rId5"/>
+    <pivotCache cacheId="165" r:id="rId6"/>
+    <pivotCache cacheId="166" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -55,7 +54,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Analysis" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_delivery_performance_analysis1.xlsxAnalysis1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_delivery_performance_analysis1.xlsxAnalysis"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="293">
   <si>
     <t>package_id</t>
   </si>
@@ -1427,20 +1426,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1487,88 +1484,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -2255,138 +2171,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73D985F4-A706-4F6A-8C7E-ADED0AC2B10E}" name="PivotTable4" cacheId="162" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B71:E78" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Average of order_value" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Total_Delivery_Hours" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField fld="3" subtotal="count" baseField="0" baseItem="0" numFmtId="9"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotHierarchies count="32">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Average of Total_Delivery_Hours"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Average of Pickup_Lag_Hours"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Average of Fulfillment_Hours"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Average of order_value"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="4"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_delivery_performance_analysis1.xlsx!Analysis">
-        <x15:activeTabTopLevelEntity name="[Analysis]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AF1764A-A0CE-49C6-A447-CF2ED335C89F}" name="PivotTable3" cacheId="157" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9AF1764A-A0CE-49C6-A447-CF2ED335C89F}" name="PivotTable3" cacheId="163" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B62:E68" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2445,7 +2230,7 @@
     <dataField name="Sum of Is_Delayed" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="28">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2512,8 +2297,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2BF5FDEE-81A2-42B3-B932-06B6CA5F700A}" name="PivotTable2" cacheId="158" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2BF5FDEE-81A2-42B3-B932-06B6CA5F700A}" name="PivotTable2" cacheId="164" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B18:E59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -2777,8 +2562,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13E0529A-D778-4524-9186-C93EDD92B81D}" name="PivotTable1" cacheId="159" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13E0529A-D778-4524-9186-C93EDD92B81D}" name="PivotTable1" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B9:E15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -2837,7 +2622,7 @@
     <dataField fld="3" subtotal="count" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="29">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2904,6 +2689,137 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73D985F4-A706-4F6A-8C7E-ADED0AC2B10E}" name="PivotTable4" cacheId="166" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B71:E78" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of order_value" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Total_Delivery_Hours" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField fld="3" subtotal="count" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotHierarchies count="32">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Average of Total_Delivery_Hours"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Average of Pickup_Lag_Hours"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Average of Fulfillment_Hours"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Average of order_value"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="4"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_delivery_performance_analysis1.xlsx!Analysis">
+        <x15:activeTabTopLevelEntity name="[Analysis]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D39B138-16C6-4085-9666-539C2B4699A0}" name="Analysis" displayName="Analysis" ref="A1:Q201" totalsRowShown="0">
   <autoFilter ref="A1:Q201" xr:uid="{8D39B138-16C6-4085-9666-539C2B4699A0}"/>
@@ -2914,25 +2830,25 @@
     <tableColumn id="4" xr3:uid="{42C92622-7C39-4554-A508-A3945CB7EAF5}" name="warehouse"/>
     <tableColumn id="5" xr3:uid="{DC725F71-ADCF-4786-BF3E-B4A19A8DF4EE}" name="category"/>
     <tableColumn id="6" xr3:uid="{F724F706-7DAA-4CCC-AF95-4C842EA6B4A4}" name="order_value"/>
-    <tableColumn id="7" xr3:uid="{EA3FB8FB-4CE1-4DD1-B685-B51CC63B41FA}" name="accept_time" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{EBF4C375-85C0-4344-B6BB-8A36A2FD5526}" name="pickup_time" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{8797926E-D841-409C-96E5-4A34FA2D6204}" name="delivery_time" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{EA3FB8FB-4CE1-4DD1-B685-B51CC63B41FA}" name="accept_time" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{EBF4C375-85C0-4344-B6BB-8A36A2FD5526}" name="pickup_time" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{8797926E-D841-409C-96E5-4A34FA2D6204}" name="delivery_time" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{197C70E0-79EF-4B36-84F1-40583AFB2533}" name="distance_km"/>
     <tableColumn id="11" xr3:uid="{AA588A72-3078-4F9D-8D14-6C750E606A1C}" name="delay_reason"/>
     <tableColumn id="12" xr3:uid="{7F81E7EE-6282-440A-BB24-9AAEFA831051}" name="sla_delivery_hrs"/>
-    <tableColumn id="13" xr3:uid="{809E453C-399F-4C97-81DB-6A7D488F0EE9}" name="Total_Delivery_Hours" dataDxfId="34">
+    <tableColumn id="13" xr3:uid="{809E453C-399F-4C97-81DB-6A7D488F0EE9}" name="Total_Delivery_Hours" dataDxfId="7">
       <calculatedColumnFormula>(Analysis[[#This Row],[delivery_time]]-Analysis[[#This Row],[pickup_time]])*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9BEA02D9-9D2E-40AB-AE55-71E71D162D3D}" name="Fulfillment_Hours" dataDxfId="33">
+    <tableColumn id="14" xr3:uid="{9BEA02D9-9D2E-40AB-AE55-71E71D162D3D}" name="Fulfillment_Hours" dataDxfId="6">
       <calculatedColumnFormula>(Analysis[[#This Row],[delivery_time]]-Analysis[[#This Row],[accept_time]])*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8DF158EB-BCA3-46A4-8810-BB5D827EDAF9}" name="Pickup_Lag_Hours" dataDxfId="32">
+    <tableColumn id="15" xr3:uid="{8DF158EB-BCA3-46A4-8810-BB5D827EDAF9}" name="Pickup_Lag_Hours" dataDxfId="5">
       <calculatedColumnFormula>(Analysis[[#This Row],[pickup_time]]-Analysis[[#This Row],[accept_time]])*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2C327D3F-0871-45D4-B227-0E8B45571054}" name="SLA_Breach" dataDxfId="31">
+    <tableColumn id="16" xr3:uid="{2C327D3F-0871-45D4-B227-0E8B45571054}" name="SLA_Breach" dataDxfId="4">
       <calculatedColumnFormula>IF(Analysis[[#This Row],[Total_Delivery_Hours]]&gt;Analysis[[#This Row],[sla_delivery_hrs]], "Breach", "OK")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0263578C-EF55-4202-80F3-F0CEBC64F946}" name="Is_Delayed" dataDxfId="30">
+    <tableColumn id="17" xr3:uid="{0263578C-EF55-4202-80F3-F0CEBC64F946}" name="Is_Delayed" dataDxfId="3">
       <calculatedColumnFormula>IF(Analysis[[#This Row],[delay_reason]]="None", 0,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10961,7 +10877,7 @@
       <c r="O1" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>275</v>
       </c>
       <c r="Q1" t="s">
@@ -22593,10 +22509,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -22611,7 +22527,7 @@
       <c r="B3" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <f>COUNTIF(Analysis[SLA_Breach], "Breach")/C2</f>
         <v>0.47499999999999998</v>
       </c>
@@ -22638,13 +22554,13 @@
       <c r="B6" t="s">
         <v>281</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <f>SUM(Analysis[Is_Delayed])/C2</f>
         <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C9" t="s">
@@ -22658,91 +22574,91 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>12.76190476190199</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>42</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>11.093023255813954</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>43</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>0.37209302325581395</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>12.139534883729052</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>43</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>0.51162790697674421</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>11.404255319161321</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>47</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>0.46808510638297873</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>13.159999999981373</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>25</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>0.52</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>12.000000000001746</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>200</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C18" t="s">
@@ -22756,581 +22672,581 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>16.500000000043656</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>1.2999999999592546</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>16.125</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>1.0666666666511446</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>15.999999999985448</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>1.3541666666715173</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>15.750000000043656</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>1.1166666666831588</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>14.333333333313931</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>0.95000000001164153</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>7</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>13.857142857134543</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>1.2309523809485003</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>13.714285714260768</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>1.2690476190431841</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>13.666666666686069</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>0.73888888885267079</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>13.666666666627862</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>1.5444444444729015</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>13.5</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>1.0208333333430346</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>13.250000000014552</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>1.3270833333808696</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>13.166666666686069</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>1.0249999999650754</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>13</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>1.0916666666453239</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>12.799999999988358</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>1.4566666666651145</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33">
         <v>12.599999999965075</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>0.90666666672332208</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>9</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34">
         <v>12.55555555554262</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <v>1.0148148148048979</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35">
         <v>12.500000000058208</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>1.2666666666045785</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36">
         <v>12.333333333313931</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>0.90555555565515533</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="7">
-        <v>12</v>
-      </c>
-      <c r="E37" s="7">
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
         <v>0.92500000000291038</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38">
         <v>7</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38">
         <v>11.85714285710128</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38">
         <v>0.92619047621597672</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39">
         <v>11.666666666686069</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>1.31111111107748</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40">
         <v>8</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40">
         <v>11.625000000021828</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40">
         <v>1.289583333345945</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41">
         <v>5</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41">
         <v>11.200000000046566</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41">
         <v>1.3766666666488163</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42">
         <v>10</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42">
         <v>11.200000000011642</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42">
         <v>1.143333333323244</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43">
         <v>11.166666666715173</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>1.2305555555503815</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44">
         <v>11</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>1.3388888888875954</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45">
         <v>5</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45">
         <v>10.799999999965076</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45">
         <v>0.89333333334652709</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46">
         <v>10.666666666686069</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46">
         <v>1.3999999999650754</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47">
         <v>8</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47">
         <v>10.624999999970896</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47">
         <v>0.92708333338669036</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48">
         <v>10.199999999999999</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48">
         <v>1.0766666667186655</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49">
         <v>10</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49">
         <v>0.99444444448454306</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50">
         <v>6</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50">
         <v>10</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50">
         <v>1.125</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51">
         <v>9.9999999999854481</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51">
         <v>1.1875000000291038</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52">
         <v>9.9999999999767173</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52">
         <v>1.3000000000465661</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53">
         <v>9.8000000000582084</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53">
         <v>0.90333333330927412</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54">
         <v>7</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54">
         <v>9.7142857142690833</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54">
         <v>1.1619047619502194</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55">
         <v>9</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55">
         <v>0.62083333330519963</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56">
         <v>5</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56">
         <v>8.0000000000232827</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56">
         <v>1.3933333332999609</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57">
         <v>7.0000000000291038</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57">
         <v>1.316666666592937</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58">
         <v>5.0000000000582077</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58">
         <v>0.88333333341870457</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59">
         <v>200</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59">
         <v>12.000000000001746</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59">
         <v>1.1331666666723321</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C62" t="s">
@@ -23344,91 +23260,91 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63">
         <v>13.932142857137867</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>0.52380952380952384</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63">
         <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64">
         <v>12.177519379859129</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="5">
         <v>0.37209302325581395</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65">
         <v>13.349224806201461</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <v>0.51162790697674421</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66">
         <v>12.535460992925552</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="5">
         <v>0.46808510638297873</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67">
         <v>14.186666666676755</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <v>0.52</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68">
         <v>13.133166666674079</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C71" t="s">
@@ -23442,100 +23358,100 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72">
         <v>1066.5675675675675</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72">
         <v>11.648648648640783</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="5">
         <v>0.78378378378378377</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73">
         <v>856.69230769230774</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73">
         <v>12.115384615384615</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="5">
         <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74">
         <v>1015.6666666666666</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74">
         <v>12.499999999992724</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75">
         <v>950.35135135135135</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75">
         <v>11.297297297295724</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="5">
         <v>0.86486486486486491</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76">
         <v>1189</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76">
         <v>12.075000000008732</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="5">
         <v>0.7</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77">
         <v>1085.1111111111111</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77">
         <v>12.583333333347886</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78">
         <v>1039.5</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78">
         <v>12.000000000001746</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="5">
         <v>0.77500000000000002</v>
       </c>
     </row>
@@ -23545,37 +23461,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EDBD1F-60A4-423B-B43E-B52C3BFDE957}">
-  <dimension ref="B3:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>